--- a/02_02b/data/country-gdp.xlsx
+++ b/02_02b/data/country-gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliejhadley/Github/creating-maps-with-R-2825608/02_02e/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Documents/GitHub/creating-maps-with-R-2825608/02_02b/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF68E5F-C03E-5B48-932E-A8ADF9D15511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8ED71E-1844-AC48-809A-C028783BB38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="25280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
